--- a/vector_result/remove_output.xlsx
+++ b/vector_result/remove_output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sicheng\549T\Cache-Oblivious-Binary-Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sicheng\549T\Cache-Oblivious-Binary-Tree\vector_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2330B05A-CD2F-40E0-B2BB-CCCE0B0A8A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2762734A-CD6E-4199-9A44-2C1823FB7236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0827C413-4AB9-414A-9F49-833CAC9B09A3}"/>
   </bookViews>
@@ -584,6 +584,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Remove Time in Microseconds</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs  Number of Elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2601,15 +2631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
